--- a/testData/ad_extract_data.xlsx
+++ b/testData/ad_extract_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="ad_extract" sheetId="2" r:id="rId1"/>
@@ -415,10 +415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Admin@123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,17 +424,21 @@
   </si>
   <si>
     <t>初始密码不允许包含'#'和'%'字符！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.240</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,7 +610,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -652,7 +652,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -684,10 +684,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -719,7 +718,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -895,31 +893,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" customWidth="1"/>
-    <col min="8" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
-    <col min="13" max="13" width="37.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="8" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -960,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -968,7 +966,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -977,7 +975,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -995,7 +993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1003,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
@@ -1012,7 +1010,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>91</v>
@@ -1030,7 +1028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1038,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
@@ -1047,7 +1045,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>92</v>
@@ -1067,7 +1065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1073,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -1084,7 +1082,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>93</v>
@@ -1102,7 +1100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
@@ -1110,7 +1108,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -1119,7 +1117,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>39</v>
@@ -1139,7 +1137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="18" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1154,7 +1152,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="18" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1169,7 +1167,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="18" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1184,7 +1182,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="18" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1199,7 +1197,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="18" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1214,7 +1212,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="18" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1241,22 +1239,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1"/>
-    <col min="2" max="8" width="33.21875" customWidth="1"/>
-    <col min="9" max="9" width="56.109375" customWidth="1"/>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
+    <col min="2" max="8" width="33.25" customWidth="1"/>
+    <col min="9" max="9" width="56.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1285,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -1312,7 +1310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -1339,7 +1337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1362,7 +1360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -1393,23 +1391,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="58.77734375" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="33.375" customWidth="1"/>
+    <col min="2" max="2" width="58.75" customWidth="1"/>
+    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="24.95" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -1426,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.95" customHeight="1">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1440,7 +1438,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1458,7 +1456,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="24.95" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1483,22 +1481,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="4" width="30.77734375" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="2" max="4" width="30.75" customWidth="1"/>
+    <col min="5" max="5" width="34.5" customWidth="1"/>
     <col min="6" max="6" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1518,12 +1516,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1536,7 +1534,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1556,12 +1554,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="24.95" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1576,7 +1574,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="24.95" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1603,22 +1601,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="39.77734375" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="2" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="39.75" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="24.95" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -1644,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
@@ -1666,7 +1664,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="24.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
@@ -1690,7 +1688,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="24.95" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
@@ -1714,7 +1712,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="24.95" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
@@ -1740,7 +1738,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="24.95" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -1763,21 +1761,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="45.88671875" customWidth="1"/>
+    <col min="1" max="1" width="31.25" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -1788,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>

--- a/testData/ad_extract_data.xlsx
+++ b/testData/ad_extract_data.xlsx
@@ -427,7 +427,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.240</t>
+    <t>172.16.10.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -898,7 +898,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
